--- a/Testovoe/Task 1(test-plan, chesk_list)/Check_list.xlsx
+++ b/Testovoe/Task 1(test-plan, chesk_list)/Check_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Хороший человек\Desktop\УЧЕБА (1С, EXCEL, программирование)\QA\Финальное тестовое. «Яндекс Метро»\Задание 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2651E4-FCDD-430F-9FD8-034AD7BE3DFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33D02FE5-2915-40FE-A29D-5E167EB306B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="975" windowWidth="15375" windowHeight="7785" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9990" yWindow="3345" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Чек-лист (метро)" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="107">
   <si>
     <t>Проект</t>
   </si>
@@ -191,9 +191,6 @@
     <t>Специфические мобильные проверки</t>
   </si>
   <si>
-    <t>Приложение использует жесты для управления</t>
-  </si>
-  <si>
     <t>Приложение позволяет пользователям сохранять избранные станции метро</t>
   </si>
   <si>
@@ -309,6 +306,114 @@
   </si>
   <si>
     <t>Возможность удаления платежных карт</t>
+  </si>
+  <si>
+    <t>Установка приложения</t>
+  </si>
+  <si>
+    <t>Запуск приложения</t>
+  </si>
+  <si>
+    <t>Удаление приложения</t>
+  </si>
+  <si>
+    <t>Переустановка приложения</t>
+  </si>
+  <si>
+    <t>Приложение использует жесты для управления (свайп)</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности всех кнопок на главной странице</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности "меню" - вертикальные черточки в правом верхнем углу</t>
+  </si>
+  <si>
+    <t>Проверка возможности выбора города</t>
+  </si>
+  <si>
+    <t>Проверка возможности выбора языка</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности выбора способа оплаты (Тройка, Стрелка)</t>
+  </si>
+  <si>
+    <t>Проверка радиобатона "Уведомления"</t>
+  </si>
+  <si>
+    <t>Проверка радиобатона "Выбирать станции касанием"</t>
+  </si>
+  <si>
+    <t>Проверка функционала очистки истории поиска</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности кнопки информации "О приложении"</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности кнопки информации "Обратная связь"</t>
+  </si>
+  <si>
+    <t>Проверка отображения начала станции на перввые буквы</t>
+  </si>
+  <si>
+    <t>Выбор станции отправления</t>
+  </si>
+  <si>
+    <t>Выбор станции назначения</t>
+  </si>
+  <si>
+    <t>Смена станций назначения и отправления местами</t>
+  </si>
+  <si>
+    <t>Удаление станции отправления</t>
+  </si>
+  <si>
+    <t>Удаление станции назначения</t>
+  </si>
+  <si>
+    <t>Довлене станции в избранное</t>
+  </si>
+  <si>
+    <t>Удаление станции из избранного</t>
+  </si>
+  <si>
+    <t>Просмотр выходов на карте</t>
+  </si>
+  <si>
+    <t>Проверка возможности перехода в Яндекс Go</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности с минимально заряженным АКБ</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности с зарядом АКБ 50%</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности с зарядом АКБ 95%</t>
+  </si>
+  <si>
+    <t>Проверка функционирования c 3G</t>
+  </si>
+  <si>
+    <t>Проверка функционирования c LTE</t>
+  </si>
+  <si>
+    <t>Проверка функционирования c Wi-Fi</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности с push уведомлениями</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности при входящем звонке</t>
+  </si>
+  <si>
+    <t>Проверка работы с отключенной геолокацией</t>
+  </si>
+  <si>
+    <t>Проверка работы без интернета</t>
+  </si>
+  <si>
+    <t>Проверка работоспособности при сворачивании и разворачивании приложения</t>
   </si>
 </sst>
 </file>
@@ -570,19 +675,22 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -594,17 +702,14 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -825,10 +930,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:W1020"/>
+  <dimension ref="A1:W1055"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C3"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -844,10 +949,10 @@
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="29"/>
+      <c r="C1" s="30"/>
       <c r="G1" s="15"/>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -858,10 +963,10 @@
       <c r="A2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="31"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="G2" s="15"/>
@@ -883,10 +988,10 @@
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="O3" s="2"/>
@@ -903,10 +1008,10 @@
       <c r="A4" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="24"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
       <c r="O4" s="2"/>
@@ -923,10 +1028,10 @@
       <c r="A5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="32"/>
+      <c r="C5" s="24"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="O5" s="2"/>
@@ -943,10 +1048,10 @@
       <c r="A6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="32"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="2"/>
       <c r="E6" s="1"/>
       <c r="O6" s="2"/>
@@ -963,10 +1068,10 @@
       <c r="A7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="32"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="2"/>
       <c r="E7" s="1"/>
       <c r="O7" s="2"/>
@@ -983,10 +1088,10 @@
       <c r="A8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="32"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="O8" s="2"/>
@@ -1003,10 +1108,10 @@
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="33"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="O9" s="2"/>
@@ -1021,7 +1126,7 @@
     </row>
     <row r="10" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>8</v>
@@ -1042,11 +1147,11 @@
       <c r="W10" s="2"/>
     </row>
     <row r="11" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="26" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="2"/>
@@ -1062,9 +1167,9 @@
       <c r="W11" s="2"/>
     </row>
     <row r="12" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="2"/>
@@ -1080,9 +1185,9 @@
       <c r="W12" s="2"/>
     </row>
     <row r="13" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
+      <c r="A13" s="26"/>
       <c r="B13" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="2"/>
@@ -1098,9 +1203,9 @@
       <c r="W13" s="2"/>
     </row>
     <row r="14" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="2"/>
@@ -1116,7 +1221,7 @@
       <c r="W14" s="2"/>
     </row>
     <row r="15" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="21" t="s">
         <v>30</v>
       </c>
@@ -1134,9 +1239,9 @@
       <c r="W15" s="2"/>
     </row>
     <row r="16" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="2"/>
@@ -1152,9 +1257,11 @@
       <c r="W16" s="2"/>
     </row>
     <row r="17" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="26"/>
+      <c r="B17" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="8"/>
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="O17" s="2"/>
@@ -1168,11 +1275,9 @@
       <c r="W17" s="2"/>
     </row>
     <row r="18" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28" t="s">
-        <v>26</v>
-      </c>
+      <c r="A18" s="26"/>
       <c r="B18" s="20" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="2"/>
@@ -1188,11 +1293,11 @@
       <c r="W18" s="2"/>
     </row>
     <row r="19" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="8" t="s">
-        <v>24</v>
+      <c r="A19" s="26"/>
+      <c r="B19" s="20" t="s">
+        <v>73</v>
       </c>
-      <c r="C19" s="19"/>
+      <c r="C19" s="8"/>
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="O19" s="2"/>
@@ -1205,10 +1310,10 @@
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
     </row>
-    <row r="20" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
+    <row r="20" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
       <c r="B20" s="20" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="2"/>
@@ -1223,10 +1328,10 @@
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
     </row>
-    <row r="21" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="20" t="s">
-        <v>55</v>
+    <row r="21" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="21" t="s">
+        <v>76</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="2"/>
@@ -1241,10 +1346,12 @@
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A22" s="24"/>
-      <c r="B22" s="24"/>
-      <c r="C22" s="24"/>
+    <row r="22" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="8"/>
       <c r="D22" s="2"/>
       <c r="E22" s="1"/>
       <c r="O22" s="2"/>
@@ -1257,25 +1364,14 @@
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>27</v>
+    <row r="23" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="21" t="s">
+        <v>78</v>
       </c>
-      <c r="B23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="17"/>
+      <c r="C23" s="8"/>
       <c r="D23" s="2"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2"/>
@@ -1286,23 +1382,14 @@
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
     </row>
-    <row r="24" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="20" t="s">
-        <v>69</v>
+    <row r="24" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="21" t="s">
+        <v>79</v>
       </c>
-      <c r="C24" s="17"/>
+      <c r="C24" s="8"/>
       <c r="D24" s="2"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
@@ -1313,23 +1400,14 @@
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
     </row>
-    <row r="25" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="20" t="s">
-        <v>70</v>
+    <row r="25" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="21" t="s">
+        <v>80</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="2"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2"/>
@@ -1340,23 +1418,14 @@
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
     </row>
-    <row r="26" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="28"/>
-      <c r="B26" s="20" t="s">
-        <v>43</v>
+    <row r="26" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="26"/>
+      <c r="B26" s="21" t="s">
+        <v>81</v>
       </c>
-      <c r="C26" s="17"/>
+      <c r="C26" s="8"/>
       <c r="D26" s="2"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2"/>
@@ -1367,23 +1436,14 @@
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
     </row>
-    <row r="27" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="20" t="s">
-        <v>56</v>
+    <row r="27" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="26"/>
+      <c r="B27" s="21" t="s">
+        <v>82</v>
       </c>
-      <c r="C27" s="17"/>
+      <c r="C27" s="8"/>
       <c r="D27" s="2"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2"/>
@@ -1394,21 +1454,14 @@
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
     </row>
-    <row r="28" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
+    <row r="28" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="26"/>
+      <c r="B28" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="8"/>
       <c r="D28" s="2"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
       <c r="Q28" s="2"/>
@@ -1419,25 +1472,14 @@
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
     </row>
-    <row r="29" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
-        <v>28</v>
+    <row r="29" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="26"/>
+      <c r="B29" s="21" t="s">
+        <v>84</v>
       </c>
-      <c r="B29" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="17"/>
+      <c r="C29" s="8"/>
       <c r="D29" s="2"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
@@ -1448,23 +1490,14 @@
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
     </row>
-    <row r="30" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="20" t="s">
-        <v>45</v>
+    <row r="30" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="26"/>
+      <c r="B30" s="21" t="s">
+        <v>85</v>
       </c>
-      <c r="C30" s="17"/>
+      <c r="C30" s="8"/>
       <c r="D30" s="2"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
@@ -1475,23 +1508,14 @@
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
     </row>
-    <row r="31" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="28"/>
-      <c r="B31" s="20" t="s">
-        <v>71</v>
+    <row r="31" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="26"/>
+      <c r="B31" s="21" t="s">
+        <v>86</v>
       </c>
-      <c r="C31" s="17"/>
+      <c r="C31" s="8"/>
       <c r="D31" s="2"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
@@ -1502,23 +1526,14 @@
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
     </row>
-    <row r="32" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="20" t="s">
-        <v>46</v>
+    <row r="32" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="26"/>
+      <c r="B32" s="21" t="s">
+        <v>87</v>
       </c>
-      <c r="C32" s="17"/>
+      <c r="C32" s="8"/>
       <c r="D32" s="2"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1529,23 +1544,14 @@
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
     </row>
-    <row r="33" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="20" t="s">
-        <v>63</v>
+    <row r="33" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="26"/>
+      <c r="B33" s="21" t="s">
+        <v>88</v>
       </c>
-      <c r="C33" s="17"/>
+      <c r="C33" s="8"/>
       <c r="D33" s="2"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
       <c r="Q33" s="2"/>
@@ -1556,21 +1562,14 @@
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
     </row>
-    <row r="34" spans="1:23" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="25"/>
+    <row r="34" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="26"/>
+      <c r="B34" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="8"/>
       <c r="D34" s="2"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
@@ -1581,25 +1580,14 @@
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
     </row>
-    <row r="35" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
-        <v>29</v>
+    <row r="35" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="26"/>
+      <c r="B35" s="21" t="s">
+        <v>90</v>
       </c>
-      <c r="B35" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C35" s="18"/>
+      <c r="C35" s="8"/>
       <c r="D35" s="2"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
@@ -1610,23 +1598,14 @@
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
     </row>
-    <row r="36" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="20" t="s">
-        <v>57</v>
+    <row r="36" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="21" t="s">
+        <v>91</v>
       </c>
-      <c r="C36" s="17"/>
+      <c r="C36" s="8"/>
       <c r="D36" s="2"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
@@ -1637,21 +1616,14 @@
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
     </row>
-    <row r="37" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
-      <c r="C37" s="25"/>
+    <row r="37" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C37" s="8"/>
       <c r="D37" s="2"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
@@ -1662,25 +1634,14 @@
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
     </row>
-    <row r="38" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="28" t="s">
-        <v>58</v>
+    <row r="38" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="21" t="s">
+        <v>93</v>
       </c>
-      <c r="B38" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="17"/>
+      <c r="C38" s="8"/>
       <c r="D38" s="2"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
@@ -1691,23 +1652,14 @@
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
     </row>
-    <row r="39" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="20" t="s">
-        <v>48</v>
+    <row r="39" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="21" t="s">
+        <v>94</v>
       </c>
-      <c r="C39" s="17"/>
+      <c r="C39" s="8"/>
       <c r="D39" s="2"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
@@ -1718,23 +1670,14 @@
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
     </row>
-    <row r="40" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="20" t="s">
-        <v>64</v>
+    <row r="40" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="21" t="s">
+        <v>95</v>
       </c>
-      <c r="C40" s="17"/>
+      <c r="C40" s="8"/>
       <c r="D40" s="2"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
@@ -1745,21 +1688,12 @@
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="25"/>
+    <row r="41" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="29"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="29"/>
       <c r="D41" s="2"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
@@ -1770,25 +1704,16 @@
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
     </row>
-    <row r="42" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="28" t="s">
-        <v>59</v>
+    <row r="42" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
+        <v>26</v>
       </c>
       <c r="B42" s="20" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="8"/>
       <c r="D42" s="2"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
@@ -1799,23 +1724,14 @@
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
     </row>
-    <row r="43" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="20" t="s">
-        <v>50</v>
+    <row r="43" spans="1:23" s="5" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="8" t="s">
+        <v>24</v>
       </c>
-      <c r="C43" s="17"/>
+      <c r="C43" s="19"/>
       <c r="D43" s="2"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2"/>
-      <c r="H43" s="2"/>
-      <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
@@ -1826,23 +1742,14 @@
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
     </row>
-    <row r="44" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
+    <row r="44" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
       <c r="B44" s="20" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
-      <c r="C44" s="17"/>
+      <c r="C44" s="8"/>
       <c r="D44" s="2"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
       <c r="Q44" s="2"/>
@@ -1854,20 +1761,13 @@
       <c r="W44" s="2"/>
     </row>
     <row r="45" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="25"/>
+      <c r="A45" s="26"/>
+      <c r="B45" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C45" s="8"/>
       <c r="D45" s="2"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2"/>
-      <c r="H45" s="2"/>
-      <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
-      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
       <c r="Q45" s="2"/>
@@ -1878,25 +1778,12 @@
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
     </row>
-    <row r="46" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="B46" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C46" s="17"/>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="2"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2"/>
-      <c r="H46" s="2"/>
-      <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
       <c r="Q46" s="2"/>
@@ -1907,10 +1794,12 @@
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
     </row>
-    <row r="47" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="28"/>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A47" s="26" t="s">
+        <v>27</v>
+      </c>
       <c r="B47" s="20" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C47" s="17"/>
       <c r="D47" s="2"/>
@@ -1935,9 +1824,11 @@
       <c r="W47" s="2"/>
     </row>
     <row r="48" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
-      <c r="C48" s="25"/>
+      <c r="A48" s="26"/>
+      <c r="B48" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="17"/>
       <c r="D48" s="2"/>
       <c r="E48" s="1"/>
       <c r="F48" s="2"/>
@@ -1960,11 +1851,9 @@
       <c r="W48" s="2"/>
     </row>
     <row r="49" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="28" t="s">
-        <v>60</v>
-      </c>
+      <c r="A49" s="26"/>
       <c r="B49" s="20" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C49" s="17"/>
       <c r="D49" s="2"/>
@@ -1989,9 +1878,9 @@
       <c r="W49" s="2"/>
     </row>
     <row r="50" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
+      <c r="A50" s="26"/>
       <c r="B50" s="20" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C50" s="17"/>
       <c r="D50" s="2"/>
@@ -2016,9 +1905,9 @@
       <c r="W50" s="2"/>
     </row>
     <row r="51" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
+      <c r="A51" s="26"/>
       <c r="B51" s="20" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C51" s="17"/>
       <c r="D51" s="2"/>
@@ -2043,9 +1932,9 @@
       <c r="W51" s="2"/>
     </row>
     <row r="52" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="34"/>
-      <c r="B52" s="34"/>
-      <c r="C52" s="34"/>
+      <c r="A52" s="27"/>
+      <c r="B52" s="27"/>
+      <c r="C52" s="27"/>
       <c r="D52" s="2"/>
       <c r="E52" s="1"/>
       <c r="F52" s="2"/>
@@ -2068,11 +1957,11 @@
       <c r="W52" s="2"/>
     </row>
     <row r="53" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="28" t="s">
-        <v>31</v>
+      <c r="A53" s="26" t="s">
+        <v>28</v>
       </c>
-      <c r="B53" s="22" t="s">
-        <v>32</v>
+      <c r="B53" s="20" t="s">
+        <v>43</v>
       </c>
       <c r="C53" s="17"/>
       <c r="D53" s="2"/>
@@ -2097,9 +1986,9 @@
       <c r="W53" s="2"/>
     </row>
     <row r="54" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="28"/>
-      <c r="B54" s="22" t="s">
-        <v>33</v>
+      <c r="A54" s="26"/>
+      <c r="B54" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="C54" s="17"/>
       <c r="D54" s="2"/>
@@ -2124,9 +2013,9 @@
       <c r="W54" s="2"/>
     </row>
     <row r="55" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="22" t="s">
-        <v>34</v>
+      <c r="A55" s="26"/>
+      <c r="B55" s="20" t="s">
+        <v>70</v>
       </c>
       <c r="C55" s="17"/>
       <c r="D55" s="2"/>
@@ -2151,9 +2040,9 @@
       <c r="W55" s="2"/>
     </row>
     <row r="56" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="22" t="s">
-        <v>35</v>
+      <c r="A56" s="26"/>
+      <c r="B56" s="20" t="s">
+        <v>45</v>
       </c>
       <c r="C56" s="17"/>
       <c r="D56" s="2"/>
@@ -2178,9 +2067,9 @@
       <c r="W56" s="2"/>
     </row>
     <row r="57" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="23" t="s">
-        <v>67</v>
+      <c r="A57" s="26"/>
+      <c r="B57" s="20" t="s">
+        <v>62</v>
       </c>
       <c r="C57" s="17"/>
       <c r="D57" s="2"/>
@@ -2204,12 +2093,12 @@
       <c r="V57" s="2"/>
       <c r="W57" s="2"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+    <row r="58" spans="1:23" s="5" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="27"/>
+      <c r="B58" s="27"/>
+      <c r="C58" s="27"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -2229,14 +2118,16 @@
       <c r="V58" s="2"/>
       <c r="W58" s="2"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A59" s="27" t="s">
-        <v>11</v>
+    <row r="59" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="26" t="s">
+        <v>29</v>
       </c>
-      <c r="B59" s="27"/>
-      <c r="C59" s="27"/>
+      <c r="B59" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C59" s="18"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
@@ -2256,16 +2147,14 @@
       <c r="V59" s="2"/>
       <c r="W59" s="2"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A60" s="12" t="s">
-        <v>9</v>
+    <row r="60" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="20" t="s">
+        <v>56</v>
       </c>
-      <c r="B60" s="26" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60" s="26"/>
+      <c r="C60" s="17"/>
       <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
@@ -2285,16 +2174,12 @@
       <c r="V60" s="2"/>
       <c r="W60" s="2"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" s="26"/>
+    <row r="61" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="27"/>
+      <c r="B61" s="27"/>
+      <c r="C61" s="27"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
@@ -2314,12 +2199,16 @@
       <c r="V61" s="2"/>
       <c r="W61" s="2"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
+    <row r="62" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C62" s="17"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
@@ -2339,12 +2228,14 @@
       <c r="V62" s="2"/>
       <c r="W62" s="2"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
+    <row r="63" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C63" s="17"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
@@ -2364,12 +2255,14 @@
       <c r="V63" s="2"/>
       <c r="W63" s="2"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
+    <row r="64" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="17"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
@@ -2390,11 +2283,11 @@
       <c r="W64" s="2"/>
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
+      <c r="A65" s="27"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="27"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
@@ -2414,9 +2307,16 @@
       <c r="V65" s="2"/>
       <c r="W65" s="2"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="17"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
       <c r="H66" s="2"/>
@@ -2436,9 +2336,14 @@
       <c r="V66" s="2"/>
       <c r="W66" s="2"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="17"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2"/>
@@ -2458,9 +2363,14 @@
       <c r="V67" s="2"/>
       <c r="W67" s="2"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C68" s="17"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
@@ -2480,9 +2390,12 @@
       <c r="V68" s="2"/>
       <c r="W68" s="2"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="27"/>
+      <c r="B69" s="27"/>
+      <c r="C69" s="27"/>
       <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
@@ -2502,9 +2415,16 @@
       <c r="V69" s="2"/>
       <c r="W69" s="2"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B70" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70" s="17"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
@@ -2524,9 +2444,14 @@
       <c r="V70" s="2"/>
       <c r="W70" s="2"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="C71" s="17"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
@@ -2546,9 +2471,12 @@
       <c r="V71" s="2"/>
       <c r="W71" s="2"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="27"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="27"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
@@ -2568,9 +2496,16 @@
       <c r="V72" s="2"/>
       <c r="W72" s="2"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B73" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" s="17"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
@@ -2590,9 +2525,14 @@
       <c r="V73" s="2"/>
       <c r="W73" s="2"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C74" s="17"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
@@ -2612,9 +2552,14 @@
       <c r="V74" s="2"/>
       <c r="W74" s="2"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="26"/>
+      <c r="B75" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C75" s="17"/>
       <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="2"/>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
@@ -2634,9 +2579,12 @@
       <c r="V75" s="2"/>
       <c r="W75" s="2"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="2"/>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
@@ -2656,9 +2604,16 @@
       <c r="V76" s="2"/>
       <c r="W76" s="2"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B77" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C77" s="17"/>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
@@ -2678,9 +2633,14 @@
       <c r="V77" s="2"/>
       <c r="W77" s="2"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C78" s="17"/>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
@@ -2700,9 +2660,14 @@
       <c r="V78" s="2"/>
       <c r="W78" s="2"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="17"/>
       <c r="D79" s="2"/>
-      <c r="E79" s="2"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="2"/>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
@@ -2722,12 +2687,14 @@
       <c r="V79" s="2"/>
       <c r="W79" s="2"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
+    <row r="80" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="26"/>
+      <c r="B80" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C80" s="17"/>
       <c r="D80" s="2"/>
-      <c r="E80" s="2"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
@@ -2747,12 +2714,14 @@
       <c r="V80" s="2"/>
       <c r="W80" s="2"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
+    <row r="81" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C81" s="17"/>
       <c r="D81" s="2"/>
-      <c r="E81" s="2"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
@@ -2772,12 +2741,14 @@
       <c r="V81" s="2"/>
       <c r="W81" s="2"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
+    <row r="82" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C82" s="17"/>
       <c r="D82" s="2"/>
-      <c r="E82" s="2"/>
+      <c r="E82" s="1"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
@@ -2797,12 +2768,14 @@
       <c r="V82" s="2"/>
       <c r="W82" s="2"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
+    <row r="83" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C83" s="17"/>
       <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
@@ -2822,12 +2795,14 @@
       <c r="V83" s="2"/>
       <c r="W83" s="2"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
+    <row r="84" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="26"/>
+      <c r="B84" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="C84" s="17"/>
       <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
+      <c r="E84" s="1"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
@@ -2847,12 +2822,14 @@
       <c r="V84" s="2"/>
       <c r="W84" s="2"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
+    <row r="85" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C85" s="17"/>
       <c r="D85" s="2"/>
-      <c r="E85" s="2"/>
+      <c r="E85" s="1"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
@@ -2872,12 +2849,14 @@
       <c r="V85" s="2"/>
       <c r="W85" s="2"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
+    <row r="86" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C86" s="17"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
@@ -2897,12 +2876,14 @@
       <c r="V86" s="2"/>
       <c r="W86" s="2"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
+    <row r="87" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="26"/>
+      <c r="B87" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="C87" s="17"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
+      <c r="E87" s="1"/>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
@@ -2922,12 +2903,14 @@
       <c r="V87" s="2"/>
       <c r="W87" s="2"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
+    <row r="88" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C88" s="17"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
+      <c r="E88" s="1"/>
       <c r="F88" s="2"/>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
@@ -2947,12 +2930,14 @@
       <c r="V88" s="2"/>
       <c r="W88" s="2"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
+    <row r="89" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="26"/>
+      <c r="B89" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="17"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
+      <c r="E89" s="1"/>
       <c r="F89" s="2"/>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
@@ -2972,12 +2957,14 @@
       <c r="V89" s="2"/>
       <c r="W89" s="2"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
+    <row r="90" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="26"/>
+      <c r="B90" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="C90" s="17"/>
       <c r="D90" s="2"/>
-      <c r="E90" s="2"/>
+      <c r="E90" s="1"/>
       <c r="F90" s="2"/>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
@@ -2997,12 +2984,14 @@
       <c r="V90" s="2"/>
       <c r="W90" s="2"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
+    <row r="91" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="26"/>
+      <c r="B91" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C91" s="17"/>
       <c r="D91" s="2"/>
-      <c r="E91" s="2"/>
+      <c r="E91" s="1"/>
       <c r="F91" s="2"/>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
@@ -3022,12 +3011,14 @@
       <c r="V91" s="2"/>
       <c r="W91" s="2"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
+    <row r="92" spans="1:23" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="26"/>
+      <c r="B92" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C92" s="17"/>
       <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
+      <c r="E92" s="1"/>
       <c r="F92" s="2"/>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
@@ -3048,9 +3039,9 @@
       <c r="W92" s="2"/>
     </row>
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A93" s="2"/>
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
+      <c r="A93" s="3"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
@@ -3073,9 +3064,11 @@
       <c r="W93" s="2"/>
     </row>
     <row r="94" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A94" s="2"/>
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
+      <c r="A94" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
@@ -3098,9 +3091,13 @@
       <c r="W94" s="2"/>
     </row>
     <row r="95" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A95" s="2"/>
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
+      <c r="A95" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B95" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="34"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3123,9 +3120,13 @@
       <c r="W95" s="2"/>
     </row>
     <row r="96" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A96" s="2"/>
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
+      <c r="A96" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B96" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C96" s="34"/>
       <c r="D96" s="2"/>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
@@ -3248,9 +3249,6 @@
       <c r="W100" s="2"/>
     </row>
     <row r="101" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A101" s="2"/>
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
@@ -3273,9 +3271,6 @@
       <c r="W101" s="2"/>
     </row>
     <row r="102" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A102" s="2"/>
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
@@ -3298,9 +3293,6 @@
       <c r="W102" s="2"/>
     </row>
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
@@ -3323,9 +3315,6 @@
       <c r="W103" s="2"/>
     </row>
     <row r="104" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A104" s="2"/>
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -3348,9 +3337,6 @@
       <c r="W104" s="2"/>
     </row>
     <row r="105" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -3373,9 +3359,6 @@
       <c r="W105" s="2"/>
     </row>
     <row r="106" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A106" s="2"/>
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
@@ -3398,9 +3381,6 @@
       <c r="W106" s="2"/>
     </row>
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A107" s="2"/>
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
@@ -3423,9 +3403,6 @@
       <c r="W107" s="2"/>
     </row>
     <row r="108" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A108" s="2"/>
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -3448,9 +3425,6 @@
       <c r="W108" s="2"/>
     </row>
     <row r="109" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A109" s="2"/>
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
@@ -3473,9 +3447,6 @@
       <c r="W109" s="2"/>
     </row>
     <row r="110" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A110" s="2"/>
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
@@ -3498,9 +3469,6 @@
       <c r="W110" s="2"/>
     </row>
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A111" s="2"/>
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
@@ -3523,9 +3491,6 @@
       <c r="W111" s="2"/>
     </row>
     <row r="112" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A112" s="2"/>
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
@@ -3548,9 +3513,6 @@
       <c r="W112" s="2"/>
     </row>
     <row r="113" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A113" s="2"/>
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
@@ -3573,9 +3535,6 @@
       <c r="W113" s="2"/>
     </row>
     <row r="114" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A114" s="2"/>
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -26247,39 +26206,914 @@
       <c r="V1020" s="2"/>
       <c r="W1020" s="2"/>
     </row>
+    <row r="1021" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1021" s="2"/>
+      <c r="B1021" s="2"/>
+      <c r="C1021" s="2"/>
+      <c r="D1021" s="2"/>
+      <c r="E1021" s="2"/>
+      <c r="F1021" s="2"/>
+      <c r="G1021" s="2"/>
+      <c r="H1021" s="2"/>
+      <c r="I1021" s="2"/>
+      <c r="J1021" s="2"/>
+      <c r="K1021" s="2"/>
+      <c r="L1021" s="2"/>
+      <c r="M1021" s="2"/>
+      <c r="N1021" s="2"/>
+      <c r="O1021" s="2"/>
+      <c r="P1021" s="2"/>
+      <c r="Q1021" s="2"/>
+      <c r="R1021" s="2"/>
+      <c r="S1021" s="2"/>
+      <c r="T1021" s="2"/>
+      <c r="U1021" s="2"/>
+      <c r="V1021" s="2"/>
+      <c r="W1021" s="2"/>
+    </row>
+    <row r="1022" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1022" s="2"/>
+      <c r="B1022" s="2"/>
+      <c r="C1022" s="2"/>
+      <c r="D1022" s="2"/>
+      <c r="E1022" s="2"/>
+      <c r="F1022" s="2"/>
+      <c r="G1022" s="2"/>
+      <c r="H1022" s="2"/>
+      <c r="I1022" s="2"/>
+      <c r="J1022" s="2"/>
+      <c r="K1022" s="2"/>
+      <c r="L1022" s="2"/>
+      <c r="M1022" s="2"/>
+      <c r="N1022" s="2"/>
+      <c r="O1022" s="2"/>
+      <c r="P1022" s="2"/>
+      <c r="Q1022" s="2"/>
+      <c r="R1022" s="2"/>
+      <c r="S1022" s="2"/>
+      <c r="T1022" s="2"/>
+      <c r="U1022" s="2"/>
+      <c r="V1022" s="2"/>
+      <c r="W1022" s="2"/>
+    </row>
+    <row r="1023" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1023" s="2"/>
+      <c r="B1023" s="2"/>
+      <c r="C1023" s="2"/>
+      <c r="D1023" s="2"/>
+      <c r="E1023" s="2"/>
+      <c r="F1023" s="2"/>
+      <c r="G1023" s="2"/>
+      <c r="H1023" s="2"/>
+      <c r="I1023" s="2"/>
+      <c r="J1023" s="2"/>
+      <c r="K1023" s="2"/>
+      <c r="L1023" s="2"/>
+      <c r="M1023" s="2"/>
+      <c r="N1023" s="2"/>
+      <c r="O1023" s="2"/>
+      <c r="P1023" s="2"/>
+      <c r="Q1023" s="2"/>
+      <c r="R1023" s="2"/>
+      <c r="S1023" s="2"/>
+      <c r="T1023" s="2"/>
+      <c r="U1023" s="2"/>
+      <c r="V1023" s="2"/>
+      <c r="W1023" s="2"/>
+    </row>
+    <row r="1024" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1024" s="2"/>
+      <c r="B1024" s="2"/>
+      <c r="C1024" s="2"/>
+      <c r="D1024" s="2"/>
+      <c r="E1024" s="2"/>
+      <c r="F1024" s="2"/>
+      <c r="G1024" s="2"/>
+      <c r="H1024" s="2"/>
+      <c r="I1024" s="2"/>
+      <c r="J1024" s="2"/>
+      <c r="K1024" s="2"/>
+      <c r="L1024" s="2"/>
+      <c r="M1024" s="2"/>
+      <c r="N1024" s="2"/>
+      <c r="O1024" s="2"/>
+      <c r="P1024" s="2"/>
+      <c r="Q1024" s="2"/>
+      <c r="R1024" s="2"/>
+      <c r="S1024" s="2"/>
+      <c r="T1024" s="2"/>
+      <c r="U1024" s="2"/>
+      <c r="V1024" s="2"/>
+      <c r="W1024" s="2"/>
+    </row>
+    <row r="1025" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1025" s="2"/>
+      <c r="B1025" s="2"/>
+      <c r="C1025" s="2"/>
+      <c r="D1025" s="2"/>
+      <c r="E1025" s="2"/>
+      <c r="F1025" s="2"/>
+      <c r="G1025" s="2"/>
+      <c r="H1025" s="2"/>
+      <c r="I1025" s="2"/>
+      <c r="J1025" s="2"/>
+      <c r="K1025" s="2"/>
+      <c r="L1025" s="2"/>
+      <c r="M1025" s="2"/>
+      <c r="N1025" s="2"/>
+      <c r="O1025" s="2"/>
+      <c r="P1025" s="2"/>
+      <c r="Q1025" s="2"/>
+      <c r="R1025" s="2"/>
+      <c r="S1025" s="2"/>
+      <c r="T1025" s="2"/>
+      <c r="U1025" s="2"/>
+      <c r="V1025" s="2"/>
+      <c r="W1025" s="2"/>
+    </row>
+    <row r="1026" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1026" s="2"/>
+      <c r="B1026" s="2"/>
+      <c r="C1026" s="2"/>
+      <c r="D1026" s="2"/>
+      <c r="E1026" s="2"/>
+      <c r="F1026" s="2"/>
+      <c r="G1026" s="2"/>
+      <c r="H1026" s="2"/>
+      <c r="I1026" s="2"/>
+      <c r="J1026" s="2"/>
+      <c r="K1026" s="2"/>
+      <c r="L1026" s="2"/>
+      <c r="M1026" s="2"/>
+      <c r="N1026" s="2"/>
+      <c r="O1026" s="2"/>
+      <c r="P1026" s="2"/>
+      <c r="Q1026" s="2"/>
+      <c r="R1026" s="2"/>
+      <c r="S1026" s="2"/>
+      <c r="T1026" s="2"/>
+      <c r="U1026" s="2"/>
+      <c r="V1026" s="2"/>
+      <c r="W1026" s="2"/>
+    </row>
+    <row r="1027" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1027" s="2"/>
+      <c r="B1027" s="2"/>
+      <c r="C1027" s="2"/>
+      <c r="D1027" s="2"/>
+      <c r="E1027" s="2"/>
+      <c r="F1027" s="2"/>
+      <c r="G1027" s="2"/>
+      <c r="H1027" s="2"/>
+      <c r="I1027" s="2"/>
+      <c r="J1027" s="2"/>
+      <c r="K1027" s="2"/>
+      <c r="L1027" s="2"/>
+      <c r="M1027" s="2"/>
+      <c r="N1027" s="2"/>
+      <c r="O1027" s="2"/>
+      <c r="P1027" s="2"/>
+      <c r="Q1027" s="2"/>
+      <c r="R1027" s="2"/>
+      <c r="S1027" s="2"/>
+      <c r="T1027" s="2"/>
+      <c r="U1027" s="2"/>
+      <c r="V1027" s="2"/>
+      <c r="W1027" s="2"/>
+    </row>
+    <row r="1028" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1028" s="2"/>
+      <c r="B1028" s="2"/>
+      <c r="C1028" s="2"/>
+      <c r="D1028" s="2"/>
+      <c r="E1028" s="2"/>
+      <c r="F1028" s="2"/>
+      <c r="G1028" s="2"/>
+      <c r="H1028" s="2"/>
+      <c r="I1028" s="2"/>
+      <c r="J1028" s="2"/>
+      <c r="K1028" s="2"/>
+      <c r="L1028" s="2"/>
+      <c r="M1028" s="2"/>
+      <c r="N1028" s="2"/>
+      <c r="O1028" s="2"/>
+      <c r="P1028" s="2"/>
+      <c r="Q1028" s="2"/>
+      <c r="R1028" s="2"/>
+      <c r="S1028" s="2"/>
+      <c r="T1028" s="2"/>
+      <c r="U1028" s="2"/>
+      <c r="V1028" s="2"/>
+      <c r="W1028" s="2"/>
+    </row>
+    <row r="1029" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1029" s="2"/>
+      <c r="B1029" s="2"/>
+      <c r="C1029" s="2"/>
+      <c r="D1029" s="2"/>
+      <c r="E1029" s="2"/>
+      <c r="F1029" s="2"/>
+      <c r="G1029" s="2"/>
+      <c r="H1029" s="2"/>
+      <c r="I1029" s="2"/>
+      <c r="J1029" s="2"/>
+      <c r="K1029" s="2"/>
+      <c r="L1029" s="2"/>
+      <c r="M1029" s="2"/>
+      <c r="N1029" s="2"/>
+      <c r="O1029" s="2"/>
+      <c r="P1029" s="2"/>
+      <c r="Q1029" s="2"/>
+      <c r="R1029" s="2"/>
+      <c r="S1029" s="2"/>
+      <c r="T1029" s="2"/>
+      <c r="U1029" s="2"/>
+      <c r="V1029" s="2"/>
+      <c r="W1029" s="2"/>
+    </row>
+    <row r="1030" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1030" s="2"/>
+      <c r="B1030" s="2"/>
+      <c r="C1030" s="2"/>
+      <c r="D1030" s="2"/>
+      <c r="E1030" s="2"/>
+      <c r="F1030" s="2"/>
+      <c r="G1030" s="2"/>
+      <c r="H1030" s="2"/>
+      <c r="I1030" s="2"/>
+      <c r="J1030" s="2"/>
+      <c r="K1030" s="2"/>
+      <c r="L1030" s="2"/>
+      <c r="M1030" s="2"/>
+      <c r="N1030" s="2"/>
+      <c r="O1030" s="2"/>
+      <c r="P1030" s="2"/>
+      <c r="Q1030" s="2"/>
+      <c r="R1030" s="2"/>
+      <c r="S1030" s="2"/>
+      <c r="T1030" s="2"/>
+      <c r="U1030" s="2"/>
+      <c r="V1030" s="2"/>
+      <c r="W1030" s="2"/>
+    </row>
+    <row r="1031" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1031" s="2"/>
+      <c r="B1031" s="2"/>
+      <c r="C1031" s="2"/>
+      <c r="D1031" s="2"/>
+      <c r="E1031" s="2"/>
+      <c r="F1031" s="2"/>
+      <c r="G1031" s="2"/>
+      <c r="H1031" s="2"/>
+      <c r="I1031" s="2"/>
+      <c r="J1031" s="2"/>
+      <c r="K1031" s="2"/>
+      <c r="L1031" s="2"/>
+      <c r="M1031" s="2"/>
+      <c r="N1031" s="2"/>
+      <c r="O1031" s="2"/>
+      <c r="P1031" s="2"/>
+      <c r="Q1031" s="2"/>
+      <c r="R1031" s="2"/>
+      <c r="S1031" s="2"/>
+      <c r="T1031" s="2"/>
+      <c r="U1031" s="2"/>
+      <c r="V1031" s="2"/>
+      <c r="W1031" s="2"/>
+    </row>
+    <row r="1032" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1032" s="2"/>
+      <c r="B1032" s="2"/>
+      <c r="C1032" s="2"/>
+      <c r="D1032" s="2"/>
+      <c r="E1032" s="2"/>
+      <c r="F1032" s="2"/>
+      <c r="G1032" s="2"/>
+      <c r="H1032" s="2"/>
+      <c r="I1032" s="2"/>
+      <c r="J1032" s="2"/>
+      <c r="K1032" s="2"/>
+      <c r="L1032" s="2"/>
+      <c r="M1032" s="2"/>
+      <c r="N1032" s="2"/>
+      <c r="O1032" s="2"/>
+      <c r="P1032" s="2"/>
+      <c r="Q1032" s="2"/>
+      <c r="R1032" s="2"/>
+      <c r="S1032" s="2"/>
+      <c r="T1032" s="2"/>
+      <c r="U1032" s="2"/>
+      <c r="V1032" s="2"/>
+      <c r="W1032" s="2"/>
+    </row>
+    <row r="1033" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1033" s="2"/>
+      <c r="B1033" s="2"/>
+      <c r="C1033" s="2"/>
+      <c r="D1033" s="2"/>
+      <c r="E1033" s="2"/>
+      <c r="F1033" s="2"/>
+      <c r="G1033" s="2"/>
+      <c r="H1033" s="2"/>
+      <c r="I1033" s="2"/>
+      <c r="J1033" s="2"/>
+      <c r="K1033" s="2"/>
+      <c r="L1033" s="2"/>
+      <c r="M1033" s="2"/>
+      <c r="N1033" s="2"/>
+      <c r="O1033" s="2"/>
+      <c r="P1033" s="2"/>
+      <c r="Q1033" s="2"/>
+      <c r="R1033" s="2"/>
+      <c r="S1033" s="2"/>
+      <c r="T1033" s="2"/>
+      <c r="U1033" s="2"/>
+      <c r="V1033" s="2"/>
+      <c r="W1033" s="2"/>
+    </row>
+    <row r="1034" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1034" s="2"/>
+      <c r="B1034" s="2"/>
+      <c r="C1034" s="2"/>
+      <c r="D1034" s="2"/>
+      <c r="E1034" s="2"/>
+      <c r="F1034" s="2"/>
+      <c r="G1034" s="2"/>
+      <c r="H1034" s="2"/>
+      <c r="I1034" s="2"/>
+      <c r="J1034" s="2"/>
+      <c r="K1034" s="2"/>
+      <c r="L1034" s="2"/>
+      <c r="M1034" s="2"/>
+      <c r="N1034" s="2"/>
+      <c r="O1034" s="2"/>
+      <c r="P1034" s="2"/>
+      <c r="Q1034" s="2"/>
+      <c r="R1034" s="2"/>
+      <c r="S1034" s="2"/>
+      <c r="T1034" s="2"/>
+      <c r="U1034" s="2"/>
+      <c r="V1034" s="2"/>
+      <c r="W1034" s="2"/>
+    </row>
+    <row r="1035" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1035" s="2"/>
+      <c r="B1035" s="2"/>
+      <c r="C1035" s="2"/>
+      <c r="D1035" s="2"/>
+      <c r="E1035" s="2"/>
+      <c r="F1035" s="2"/>
+      <c r="G1035" s="2"/>
+      <c r="H1035" s="2"/>
+      <c r="I1035" s="2"/>
+      <c r="J1035" s="2"/>
+      <c r="K1035" s="2"/>
+      <c r="L1035" s="2"/>
+      <c r="M1035" s="2"/>
+      <c r="N1035" s="2"/>
+      <c r="O1035" s="2"/>
+      <c r="P1035" s="2"/>
+      <c r="Q1035" s="2"/>
+      <c r="R1035" s="2"/>
+      <c r="S1035" s="2"/>
+      <c r="T1035" s="2"/>
+      <c r="U1035" s="2"/>
+      <c r="V1035" s="2"/>
+      <c r="W1035" s="2"/>
+    </row>
+    <row r="1036" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1036" s="2"/>
+      <c r="B1036" s="2"/>
+      <c r="C1036" s="2"/>
+      <c r="D1036" s="2"/>
+      <c r="E1036" s="2"/>
+      <c r="F1036" s="2"/>
+      <c r="G1036" s="2"/>
+      <c r="H1036" s="2"/>
+      <c r="I1036" s="2"/>
+      <c r="J1036" s="2"/>
+      <c r="K1036" s="2"/>
+      <c r="L1036" s="2"/>
+      <c r="M1036" s="2"/>
+      <c r="N1036" s="2"/>
+      <c r="O1036" s="2"/>
+      <c r="P1036" s="2"/>
+      <c r="Q1036" s="2"/>
+      <c r="R1036" s="2"/>
+      <c r="S1036" s="2"/>
+      <c r="T1036" s="2"/>
+      <c r="U1036" s="2"/>
+      <c r="V1036" s="2"/>
+      <c r="W1036" s="2"/>
+    </row>
+    <row r="1037" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1037" s="2"/>
+      <c r="B1037" s="2"/>
+      <c r="C1037" s="2"/>
+      <c r="D1037" s="2"/>
+      <c r="E1037" s="2"/>
+      <c r="F1037" s="2"/>
+      <c r="G1037" s="2"/>
+      <c r="H1037" s="2"/>
+      <c r="I1037" s="2"/>
+      <c r="J1037" s="2"/>
+      <c r="K1037" s="2"/>
+      <c r="L1037" s="2"/>
+      <c r="M1037" s="2"/>
+      <c r="N1037" s="2"/>
+      <c r="O1037" s="2"/>
+      <c r="P1037" s="2"/>
+      <c r="Q1037" s="2"/>
+      <c r="R1037" s="2"/>
+      <c r="S1037" s="2"/>
+      <c r="T1037" s="2"/>
+      <c r="U1037" s="2"/>
+      <c r="V1037" s="2"/>
+      <c r="W1037" s="2"/>
+    </row>
+    <row r="1038" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1038" s="2"/>
+      <c r="B1038" s="2"/>
+      <c r="C1038" s="2"/>
+      <c r="D1038" s="2"/>
+      <c r="E1038" s="2"/>
+      <c r="F1038" s="2"/>
+      <c r="G1038" s="2"/>
+      <c r="H1038" s="2"/>
+      <c r="I1038" s="2"/>
+      <c r="J1038" s="2"/>
+      <c r="K1038" s="2"/>
+      <c r="L1038" s="2"/>
+      <c r="M1038" s="2"/>
+      <c r="N1038" s="2"/>
+      <c r="O1038" s="2"/>
+      <c r="P1038" s="2"/>
+      <c r="Q1038" s="2"/>
+      <c r="R1038" s="2"/>
+      <c r="S1038" s="2"/>
+      <c r="T1038" s="2"/>
+      <c r="U1038" s="2"/>
+      <c r="V1038" s="2"/>
+      <c r="W1038" s="2"/>
+    </row>
+    <row r="1039" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1039" s="2"/>
+      <c r="B1039" s="2"/>
+      <c r="C1039" s="2"/>
+      <c r="D1039" s="2"/>
+      <c r="E1039" s="2"/>
+      <c r="F1039" s="2"/>
+      <c r="G1039" s="2"/>
+      <c r="H1039" s="2"/>
+      <c r="I1039" s="2"/>
+      <c r="J1039" s="2"/>
+      <c r="K1039" s="2"/>
+      <c r="L1039" s="2"/>
+      <c r="M1039" s="2"/>
+      <c r="N1039" s="2"/>
+      <c r="O1039" s="2"/>
+      <c r="P1039" s="2"/>
+      <c r="Q1039" s="2"/>
+      <c r="R1039" s="2"/>
+      <c r="S1039" s="2"/>
+      <c r="T1039" s="2"/>
+      <c r="U1039" s="2"/>
+      <c r="V1039" s="2"/>
+      <c r="W1039" s="2"/>
+    </row>
+    <row r="1040" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1040" s="2"/>
+      <c r="B1040" s="2"/>
+      <c r="C1040" s="2"/>
+      <c r="D1040" s="2"/>
+      <c r="E1040" s="2"/>
+      <c r="F1040" s="2"/>
+      <c r="G1040" s="2"/>
+      <c r="H1040" s="2"/>
+      <c r="I1040" s="2"/>
+      <c r="J1040" s="2"/>
+      <c r="K1040" s="2"/>
+      <c r="L1040" s="2"/>
+      <c r="M1040" s="2"/>
+      <c r="N1040" s="2"/>
+      <c r="O1040" s="2"/>
+      <c r="P1040" s="2"/>
+      <c r="Q1040" s="2"/>
+      <c r="R1040" s="2"/>
+      <c r="S1040" s="2"/>
+      <c r="T1040" s="2"/>
+      <c r="U1040" s="2"/>
+      <c r="V1040" s="2"/>
+      <c r="W1040" s="2"/>
+    </row>
+    <row r="1041" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1041" s="2"/>
+      <c r="B1041" s="2"/>
+      <c r="C1041" s="2"/>
+      <c r="D1041" s="2"/>
+      <c r="E1041" s="2"/>
+      <c r="F1041" s="2"/>
+      <c r="G1041" s="2"/>
+      <c r="H1041" s="2"/>
+      <c r="I1041" s="2"/>
+      <c r="J1041" s="2"/>
+      <c r="K1041" s="2"/>
+      <c r="L1041" s="2"/>
+      <c r="M1041" s="2"/>
+      <c r="N1041" s="2"/>
+      <c r="O1041" s="2"/>
+      <c r="P1041" s="2"/>
+      <c r="Q1041" s="2"/>
+      <c r="R1041" s="2"/>
+      <c r="S1041" s="2"/>
+      <c r="T1041" s="2"/>
+      <c r="U1041" s="2"/>
+      <c r="V1041" s="2"/>
+      <c r="W1041" s="2"/>
+    </row>
+    <row r="1042" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1042" s="2"/>
+      <c r="B1042" s="2"/>
+      <c r="C1042" s="2"/>
+      <c r="D1042" s="2"/>
+      <c r="E1042" s="2"/>
+      <c r="F1042" s="2"/>
+      <c r="G1042" s="2"/>
+      <c r="H1042" s="2"/>
+      <c r="I1042" s="2"/>
+      <c r="J1042" s="2"/>
+      <c r="K1042" s="2"/>
+      <c r="L1042" s="2"/>
+      <c r="M1042" s="2"/>
+      <c r="N1042" s="2"/>
+      <c r="O1042" s="2"/>
+      <c r="P1042" s="2"/>
+      <c r="Q1042" s="2"/>
+      <c r="R1042" s="2"/>
+      <c r="S1042" s="2"/>
+      <c r="T1042" s="2"/>
+      <c r="U1042" s="2"/>
+      <c r="V1042" s="2"/>
+      <c r="W1042" s="2"/>
+    </row>
+    <row r="1043" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1043" s="2"/>
+      <c r="B1043" s="2"/>
+      <c r="C1043" s="2"/>
+      <c r="D1043" s="2"/>
+      <c r="E1043" s="2"/>
+      <c r="F1043" s="2"/>
+      <c r="G1043" s="2"/>
+      <c r="H1043" s="2"/>
+      <c r="I1043" s="2"/>
+      <c r="J1043" s="2"/>
+      <c r="K1043" s="2"/>
+      <c r="L1043" s="2"/>
+      <c r="M1043" s="2"/>
+      <c r="N1043" s="2"/>
+      <c r="O1043" s="2"/>
+      <c r="P1043" s="2"/>
+      <c r="Q1043" s="2"/>
+      <c r="R1043" s="2"/>
+      <c r="S1043" s="2"/>
+      <c r="T1043" s="2"/>
+      <c r="U1043" s="2"/>
+      <c r="V1043" s="2"/>
+      <c r="W1043" s="2"/>
+    </row>
+    <row r="1044" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1044" s="2"/>
+      <c r="B1044" s="2"/>
+      <c r="C1044" s="2"/>
+      <c r="D1044" s="2"/>
+      <c r="E1044" s="2"/>
+      <c r="F1044" s="2"/>
+      <c r="G1044" s="2"/>
+      <c r="H1044" s="2"/>
+      <c r="I1044" s="2"/>
+      <c r="J1044" s="2"/>
+      <c r="K1044" s="2"/>
+      <c r="L1044" s="2"/>
+      <c r="M1044" s="2"/>
+      <c r="N1044" s="2"/>
+      <c r="O1044" s="2"/>
+      <c r="P1044" s="2"/>
+      <c r="Q1044" s="2"/>
+      <c r="R1044" s="2"/>
+      <c r="S1044" s="2"/>
+      <c r="T1044" s="2"/>
+      <c r="U1044" s="2"/>
+      <c r="V1044" s="2"/>
+      <c r="W1044" s="2"/>
+    </row>
+    <row r="1045" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1045" s="2"/>
+      <c r="B1045" s="2"/>
+      <c r="C1045" s="2"/>
+      <c r="D1045" s="2"/>
+      <c r="E1045" s="2"/>
+      <c r="F1045" s="2"/>
+      <c r="G1045" s="2"/>
+      <c r="H1045" s="2"/>
+      <c r="I1045" s="2"/>
+      <c r="J1045" s="2"/>
+      <c r="K1045" s="2"/>
+      <c r="L1045" s="2"/>
+      <c r="M1045" s="2"/>
+      <c r="N1045" s="2"/>
+      <c r="O1045" s="2"/>
+      <c r="P1045" s="2"/>
+      <c r="Q1045" s="2"/>
+      <c r="R1045" s="2"/>
+      <c r="S1045" s="2"/>
+      <c r="T1045" s="2"/>
+      <c r="U1045" s="2"/>
+      <c r="V1045" s="2"/>
+      <c r="W1045" s="2"/>
+    </row>
+    <row r="1046" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1046" s="2"/>
+      <c r="B1046" s="2"/>
+      <c r="C1046" s="2"/>
+      <c r="D1046" s="2"/>
+      <c r="E1046" s="2"/>
+      <c r="F1046" s="2"/>
+      <c r="G1046" s="2"/>
+      <c r="H1046" s="2"/>
+      <c r="I1046" s="2"/>
+      <c r="J1046" s="2"/>
+      <c r="K1046" s="2"/>
+      <c r="L1046" s="2"/>
+      <c r="M1046" s="2"/>
+      <c r="N1046" s="2"/>
+      <c r="O1046" s="2"/>
+      <c r="P1046" s="2"/>
+      <c r="Q1046" s="2"/>
+      <c r="R1046" s="2"/>
+      <c r="S1046" s="2"/>
+      <c r="T1046" s="2"/>
+      <c r="U1046" s="2"/>
+      <c r="V1046" s="2"/>
+      <c r="W1046" s="2"/>
+    </row>
+    <row r="1047" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1047" s="2"/>
+      <c r="B1047" s="2"/>
+      <c r="C1047" s="2"/>
+      <c r="D1047" s="2"/>
+      <c r="E1047" s="2"/>
+      <c r="F1047" s="2"/>
+      <c r="G1047" s="2"/>
+      <c r="H1047" s="2"/>
+      <c r="I1047" s="2"/>
+      <c r="J1047" s="2"/>
+      <c r="K1047" s="2"/>
+      <c r="L1047" s="2"/>
+      <c r="M1047" s="2"/>
+      <c r="N1047" s="2"/>
+      <c r="O1047" s="2"/>
+      <c r="P1047" s="2"/>
+      <c r="Q1047" s="2"/>
+      <c r="R1047" s="2"/>
+      <c r="S1047" s="2"/>
+      <c r="T1047" s="2"/>
+      <c r="U1047" s="2"/>
+      <c r="V1047" s="2"/>
+      <c r="W1047" s="2"/>
+    </row>
+    <row r="1048" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1048" s="2"/>
+      <c r="B1048" s="2"/>
+      <c r="C1048" s="2"/>
+      <c r="D1048" s="2"/>
+      <c r="E1048" s="2"/>
+      <c r="F1048" s="2"/>
+      <c r="G1048" s="2"/>
+      <c r="H1048" s="2"/>
+      <c r="I1048" s="2"/>
+      <c r="J1048" s="2"/>
+      <c r="K1048" s="2"/>
+      <c r="L1048" s="2"/>
+      <c r="M1048" s="2"/>
+      <c r="N1048" s="2"/>
+      <c r="O1048" s="2"/>
+      <c r="P1048" s="2"/>
+      <c r="Q1048" s="2"/>
+      <c r="R1048" s="2"/>
+      <c r="S1048" s="2"/>
+      <c r="T1048" s="2"/>
+      <c r="U1048" s="2"/>
+      <c r="V1048" s="2"/>
+      <c r="W1048" s="2"/>
+    </row>
+    <row r="1049" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1049" s="2"/>
+      <c r="B1049" s="2"/>
+      <c r="C1049" s="2"/>
+      <c r="D1049" s="2"/>
+      <c r="E1049" s="2"/>
+      <c r="F1049" s="2"/>
+      <c r="G1049" s="2"/>
+      <c r="H1049" s="2"/>
+      <c r="I1049" s="2"/>
+      <c r="J1049" s="2"/>
+      <c r="K1049" s="2"/>
+      <c r="L1049" s="2"/>
+      <c r="M1049" s="2"/>
+      <c r="N1049" s="2"/>
+      <c r="O1049" s="2"/>
+      <c r="P1049" s="2"/>
+      <c r="Q1049" s="2"/>
+      <c r="R1049" s="2"/>
+      <c r="S1049" s="2"/>
+      <c r="T1049" s="2"/>
+      <c r="U1049" s="2"/>
+      <c r="V1049" s="2"/>
+      <c r="W1049" s="2"/>
+    </row>
+    <row r="1050" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1050" s="2"/>
+      <c r="B1050" s="2"/>
+      <c r="C1050" s="2"/>
+      <c r="D1050" s="2"/>
+      <c r="E1050" s="2"/>
+      <c r="F1050" s="2"/>
+      <c r="G1050" s="2"/>
+      <c r="H1050" s="2"/>
+      <c r="I1050" s="2"/>
+      <c r="J1050" s="2"/>
+      <c r="K1050" s="2"/>
+      <c r="L1050" s="2"/>
+      <c r="M1050" s="2"/>
+      <c r="N1050" s="2"/>
+      <c r="O1050" s="2"/>
+      <c r="P1050" s="2"/>
+      <c r="Q1050" s="2"/>
+      <c r="R1050" s="2"/>
+      <c r="S1050" s="2"/>
+      <c r="T1050" s="2"/>
+      <c r="U1050" s="2"/>
+      <c r="V1050" s="2"/>
+      <c r="W1050" s="2"/>
+    </row>
+    <row r="1051" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1051" s="2"/>
+      <c r="B1051" s="2"/>
+      <c r="C1051" s="2"/>
+      <c r="D1051" s="2"/>
+      <c r="E1051" s="2"/>
+      <c r="F1051" s="2"/>
+      <c r="G1051" s="2"/>
+      <c r="H1051" s="2"/>
+      <c r="I1051" s="2"/>
+      <c r="J1051" s="2"/>
+      <c r="K1051" s="2"/>
+      <c r="L1051" s="2"/>
+      <c r="M1051" s="2"/>
+      <c r="N1051" s="2"/>
+      <c r="O1051" s="2"/>
+      <c r="P1051" s="2"/>
+      <c r="Q1051" s="2"/>
+      <c r="R1051" s="2"/>
+      <c r="S1051" s="2"/>
+      <c r="T1051" s="2"/>
+      <c r="U1051" s="2"/>
+      <c r="V1051" s="2"/>
+      <c r="W1051" s="2"/>
+    </row>
+    <row r="1052" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1052" s="2"/>
+      <c r="B1052" s="2"/>
+      <c r="C1052" s="2"/>
+      <c r="D1052" s="2"/>
+      <c r="E1052" s="2"/>
+      <c r="F1052" s="2"/>
+      <c r="G1052" s="2"/>
+      <c r="H1052" s="2"/>
+      <c r="I1052" s="2"/>
+      <c r="J1052" s="2"/>
+      <c r="K1052" s="2"/>
+      <c r="L1052" s="2"/>
+      <c r="M1052" s="2"/>
+      <c r="N1052" s="2"/>
+      <c r="O1052" s="2"/>
+      <c r="P1052" s="2"/>
+      <c r="Q1052" s="2"/>
+      <c r="R1052" s="2"/>
+      <c r="S1052" s="2"/>
+      <c r="T1052" s="2"/>
+      <c r="U1052" s="2"/>
+      <c r="V1052" s="2"/>
+      <c r="W1052" s="2"/>
+    </row>
+    <row r="1053" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1053" s="2"/>
+      <c r="B1053" s="2"/>
+      <c r="C1053" s="2"/>
+      <c r="D1053" s="2"/>
+      <c r="E1053" s="2"/>
+      <c r="F1053" s="2"/>
+      <c r="G1053" s="2"/>
+      <c r="H1053" s="2"/>
+      <c r="I1053" s="2"/>
+      <c r="J1053" s="2"/>
+      <c r="K1053" s="2"/>
+      <c r="L1053" s="2"/>
+      <c r="M1053" s="2"/>
+      <c r="N1053" s="2"/>
+      <c r="O1053" s="2"/>
+      <c r="P1053" s="2"/>
+      <c r="Q1053" s="2"/>
+      <c r="R1053" s="2"/>
+      <c r="S1053" s="2"/>
+      <c r="T1053" s="2"/>
+      <c r="U1053" s="2"/>
+      <c r="V1053" s="2"/>
+      <c r="W1053" s="2"/>
+    </row>
+    <row r="1054" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1054" s="2"/>
+      <c r="B1054" s="2"/>
+      <c r="C1054" s="2"/>
+      <c r="D1054" s="2"/>
+      <c r="E1054" s="2"/>
+      <c r="F1054" s="2"/>
+      <c r="G1054" s="2"/>
+      <c r="H1054" s="2"/>
+      <c r="I1054" s="2"/>
+      <c r="J1054" s="2"/>
+      <c r="K1054" s="2"/>
+      <c r="L1054" s="2"/>
+      <c r="M1054" s="2"/>
+      <c r="N1054" s="2"/>
+      <c r="O1054" s="2"/>
+      <c r="P1054" s="2"/>
+      <c r="Q1054" s="2"/>
+      <c r="R1054" s="2"/>
+      <c r="S1054" s="2"/>
+      <c r="T1054" s="2"/>
+      <c r="U1054" s="2"/>
+      <c r="V1054" s="2"/>
+      <c r="W1054" s="2"/>
+    </row>
+    <row r="1055" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1055" s="2"/>
+      <c r="B1055" s="2"/>
+      <c r="C1055" s="2"/>
+      <c r="D1055" s="2"/>
+      <c r="E1055" s="2"/>
+      <c r="F1055" s="2"/>
+      <c r="G1055" s="2"/>
+      <c r="H1055" s="2"/>
+      <c r="I1055" s="2"/>
+      <c r="J1055" s="2"/>
+      <c r="K1055" s="2"/>
+      <c r="L1055" s="2"/>
+      <c r="M1055" s="2"/>
+      <c r="N1055" s="2"/>
+      <c r="O1055" s="2"/>
+      <c r="P1055" s="2"/>
+      <c r="Q1055" s="2"/>
+      <c r="R1055" s="2"/>
+      <c r="S1055" s="2"/>
+      <c r="T1055" s="2"/>
+      <c r="U1055" s="2"/>
+      <c r="V1055" s="2"/>
+      <c r="W1055" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A46:C46"/>
     <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A18:A21"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A29:A33"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="B96:C96"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="B95:C95"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="A62:A64"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="A66:A68"/>
+    <mergeCell ref="A77:A92"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="B61:C61"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="B60:C60"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A38:A40"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A11:A40"/>
+    <mergeCell ref="A42:A45"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{CA2E3E77-E370-4C78-81AF-B8A70660282E}"/>
